--- a/tirupati_election.xlsx
+++ b/tirupati_election.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm one\Desktop\AP\Piyush\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adm one\PycharmProjects\pythonProject\dash_app_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D18D9C-BEA2-4444-912F-3F4230CDE2FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BF39D67-F2CA-4D3B-BDEE-1176B95B041A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" activeTab="2" xr2:uid="{0A480A93-14CE-4ED3-892B-DF056C0E4A18}"/>
   </bookViews>
@@ -155,7 +155,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +539,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A9"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -802,7 +802,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
